--- a/pandas_table.xlsx
+++ b/pandas_table.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prova" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcoli" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>China</t>
   </si>
@@ -25,7 +26,10 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Spagna</t>
   </si>
   <si>
     <t>Rank</t>
@@ -41,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +53,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C2:E7" totalsRowShown="0">
+  <autoFilter ref="C2:E7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Rank"/>
     <tableColumn id="2" name="Country"/>
@@ -378,68 +413,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="C2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1404338840</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1366938189</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>330267887</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>269603400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1404338840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1366938189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>330267887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>269603400</v>
+      <c r="E7">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
@@ -448,4 +494,75 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <f t="array" ref="A1">SUM(B1:C1*B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>500</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f t="array" ref="A2">SUM(B1:C1*B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="array" ref="A5:A7">TREND(C5:C7,B5:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>20234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>21003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pandas_table.xlsx
+++ b/pandas_table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>China</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Spagna</t>
+  </si>
+  <si>
+    <t>Cile</t>
   </si>
   <si>
     <t>Rank</t>
@@ -117,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C2:E7" totalsRowShown="0">
-  <autoFilter ref="C2:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C2:E8" totalsRowShown="0">
+  <autoFilter ref="C2:E8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Rank"/>
     <tableColumn id="2" name="Country"/>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:E7"/>
+  <dimension ref="C2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,13 +427,13 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="3:5">
@@ -486,6 +489,17 @@
       </c>
       <c r="E7">
         <v>2222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>9996660</v>
       </c>
     </row>
   </sheetData>
